--- a/Map1.xlsx
+++ b/Map1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="324" yWindow="360" windowWidth="18816" windowHeight="7056"/>
+    <workbookView minimized="1" xWindow="324" yWindow="360" windowWidth="18816" windowHeight="7056"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
   <si>
     <t>Level</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>heuristiek 2</t>
+  </si>
+  <si>
+    <t>aantal cars</t>
+  </si>
+  <si>
+    <t>aantal trucks</t>
+  </si>
+  <si>
+    <t>state space 9x9</t>
   </si>
 </sst>
 </file>
@@ -597,11 +606,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="990032864"/>
-        <c:axId val="990030144"/>
+        <c:axId val="474472768"/>
+        <c:axId val="474473312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="990032864"/>
+        <c:axId val="474472768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -611,12 +620,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="990030144"/>
+        <c:crossAx val="474473312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="990030144"/>
+        <c:axId val="474473312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -627,7 +636,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="990032864"/>
+        <c:crossAx val="474472768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1125,11 +1134,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="995793312"/>
-        <c:axId val="990033408"/>
+        <c:axId val="474484736"/>
+        <c:axId val="474474400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="995793312"/>
+        <c:axId val="474484736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1171,12 +1180,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="990033408"/>
+        <c:crossAx val="474474400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="990033408"/>
+        <c:axId val="474474400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1284,7 +1293,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="995793312"/>
+        <c:crossAx val="474484736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1871,16 +1880,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>509270</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>440690</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>525145</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>173355</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>456565</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2189,13 +2198,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.21875" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="6" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
@@ -2553,7 +2570,7 @@
         <v>80.869774725936637</v>
       </c>
       <c r="O12">
-        <f t="shared" si="0"/>
+        <f>H12/$B12*100</f>
         <v>72.7261775689676</v>
       </c>
     </row>
@@ -2594,7 +2611,7 @@
         <v>91.017352841102422</v>
       </c>
       <c r="L13">
-        <f t="shared" si="0"/>
+        <f>E13/$B13*100</f>
         <v>91.017352841102422</v>
       </c>
       <c r="M13">
@@ -2639,7 +2656,7 @@
         <v>3</v>
       </c>
       <c r="J14">
-        <f t="shared" ref="J14:J15" si="1">C14/$B14*100</f>
+        <f>C14/$B14*100</f>
         <v>97.692307692307693</v>
       </c>
       <c r="K14">
@@ -2692,11 +2709,11 @@
         <v>4</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
+        <f>C15/$B15*100</f>
         <v>101.97875522491084</v>
       </c>
       <c r="K15">
-        <f t="shared" si="0"/>
+        <f>D15/$B15*100</f>
         <v>89.232657130804924</v>
       </c>
       <c r="L15">
@@ -2714,6 +2731,99 @@
       <c r="O15">
         <f t="shared" si="0"/>
         <v>57.061778578824253</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D50">
+        <v>6</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <f>5^7</f>
+        <v>78125</v>
+      </c>
+      <c r="D53">
+        <f>4^3</f>
+        <v>64</v>
+      </c>
+      <c r="E53">
+        <f>C53*D53</f>
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <f>6-1-(6/6)</f>
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <f>6-2-(6/6)</f>
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <f>C54^(D50)</f>
+        <v>4096</v>
+      </c>
+      <c r="H54">
+        <f>D54^(E50)</f>
+        <v>27</v>
+      </c>
+      <c r="I54">
+        <f>G54*H54</f>
+        <v>110592</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>12</v>
+      </c>
+      <c r="B57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <f>9-1-(11/9)</f>
+        <v>6.7777777777777777</v>
+      </c>
+      <c r="D58">
+        <f>9-2-(11/9)</f>
+        <v>5.7777777777777777</v>
+      </c>
+      <c r="F58">
+        <f>C58^(A57)</f>
+        <v>9398269767.9927425</v>
+      </c>
+      <c r="G58">
+        <f>D58^(B57)</f>
+        <v>41457999.498792939</v>
+      </c>
+      <c r="H58">
+        <f>F58*G58</f>
+        <v>3.8963346333096397E+17</v>
       </c>
     </row>
   </sheetData>
